--- a/pred_ohlcv/54_21/2019-10-22 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 FZZ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>15070302.10772206</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-18956469.53699099</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-20151747.92749099</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-19123048.984091</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-18557750.86570339</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-19982151.72630339</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-16344322.01594554</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16192614.65447549</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-15500439.84670008</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-14101834.81320008</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-15917194.53190008</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-17092253.98842467</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-13643771.16854926</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-19653643.78514927</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-19490309.91160975</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-20185519.80740975</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-23222258.54770975</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-26017696.955325</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-25722725.461725</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-25151034.32139891</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-24764712.39829891</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-24210251.42759891</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-25890374.91399891</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-28862445.06332619</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-26182150.01292619</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-486372144.2858986</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-498104375.6011267</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-499084092.2293267</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-674154307.516394</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-672611870.9968613</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-671223082.6190614</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 FZZ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>15070302.10772206</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9773484.869337207</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6749216.908365889</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-18956469.53699099</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-20151747.92749099</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-19123048.984091</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-18557750.86570339</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-19982151.72630339</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-16344322.01594554</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16192614.65447549</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-15500439.84670008</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-14101834.81320008</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-15917194.53190008</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-17092253.98842467</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-13643771.16854926</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-19653643.78514927</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-19490309.91160975</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-20185519.80740975</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-23222258.54770975</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-26017696.955325</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-25722725.461725</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-25151034.32139891</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-24764712.39829891</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-24210251.42759891</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-25890374.91399891</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-28862445.06332619</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-26182150.01292619</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-486372144.2858986</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-498104375.6011267</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-499084092.2293267</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-500146848.7471267</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-498474165.5336267</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-497678208.5521266</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-496735122.4632266</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-494823131.6926798</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-494823131.6926798</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-496569777.8740798</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-498397484.0364798</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-499572390.7194798</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-480541519.7931941</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-524065706.5111941</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-370176455.2092941</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-719064506.8648614</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-672611870.9968613</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-671223082.6190614</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
